--- a/server/sqls/renames.xlsx
+++ b/server/sqls/renames.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\bazzar\server\sqls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53EA60E-1AF0-4C20-88EE-2DB2E575B1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE5FBD2-1129-406D-9BF3-F7B3817014B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{32968366-9E5D-4241-AA33-EB37E38F85CC}"/>
+    <workbookView xWindow="13728" yWindow="0" windowWidth="9408" windowHeight="12336" xr2:uid="{32968366-9E5D-4241-AA33-EB37E38F85CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>tata consumer product</t>
   </si>
@@ -36,9 +36,6 @@
     <t>hdfc</t>
   </si>
   <si>
-    <t>asian paints</t>
-  </si>
-  <si>
     <t>ultratech cement</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>bajaj finance</t>
   </si>
   <si>
-    <t>hindustan unilever</t>
-  </si>
-  <si>
     <t>sun pharma</t>
   </si>
   <si>
@@ -81,9 +75,6 @@
     <t>tata</t>
   </si>
   <si>
-    <t>asian</t>
-  </si>
-  <si>
     <t>titan</t>
   </si>
   <si>
@@ -99,25 +90,131 @@
     <t>page</t>
   </si>
   <si>
-    <t>hind</t>
-  </si>
-  <si>
     <t>ultra</t>
   </si>
   <si>
-    <t>polycab india</t>
-  </si>
-  <si>
-    <t>poly</t>
+    <t>jfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wipro </t>
+  </si>
+  <si>
+    <t>wipro</t>
+  </si>
+  <si>
+    <t>sbi</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>tata motors</t>
+  </si>
+  <si>
+    <t>tatam</t>
+  </si>
+  <si>
+    <t>maruti suzuki</t>
+  </si>
+  <si>
+    <t>Bharat Forge</t>
+  </si>
+  <si>
+    <t>bharat</t>
+  </si>
+  <si>
+    <t>bajaj auto</t>
+  </si>
+  <si>
+    <t>bajaja</t>
+  </si>
+  <si>
+    <t>Dr.Reddy</t>
+  </si>
+  <si>
+    <t>dr</t>
+  </si>
+  <si>
+    <t>Zydus</t>
+  </si>
+  <si>
+    <t>zydus</t>
+  </si>
+  <si>
+    <t>cipla</t>
+  </si>
+  <si>
+    <t>HUL</t>
+  </si>
+  <si>
+    <t>hul</t>
+  </si>
+  <si>
+    <t>Adani Enterprise</t>
+  </si>
+  <si>
+    <t>Jindal Steel</t>
+  </si>
+  <si>
+    <t>Tata Steel</t>
+  </si>
+  <si>
+    <t>Coal India</t>
+  </si>
+  <si>
+    <t>adani</t>
+  </si>
+  <si>
+    <t>jindal</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>tatas</t>
+  </si>
+  <si>
+    <t>Adani Ports</t>
+  </si>
+  <si>
+    <t>adanip</t>
+  </si>
+  <si>
+    <t>Ambuja Cements</t>
+  </si>
+  <si>
+    <t>amb</t>
+  </si>
+  <si>
+    <t>Tata Power</t>
+  </si>
+  <si>
+    <t>tatap</t>
+  </si>
+  <si>
+    <t>IOC</t>
+  </si>
+  <si>
+    <t>ioc</t>
+  </si>
+  <si>
+    <t>ongc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -144,8 +241,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,151 +558,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED19DDD0-B698-4595-B1C9-67C796057925}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="18.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
